--- a/data/trans_bre/P21D_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Estudios-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7255892743562667</v>
+        <v>0.7255892743562669</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>1.85023676909051</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6114190840039615</v>
+        <v>-0.4923377247647703</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.739453823030052</v>
+        <v>1.911253159911385</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8998358889080399</v>
+        <v>0.8998358889080401</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>13.09163579287846</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4165624455580987</v>
+        <v>0.4416358427423833</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.589236382944648</v>
+        <v>1.696303418589326</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.393804636374459</v>
+        <v>-1.350499811167145</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4058211046895289</v>
+        <v>0.397142103181387</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2071082230678724</v>
+        <v>0.2342933177686178</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1325072065877594</v>
+        <v>0.1901659603690829</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.147539373408393</v>
+        <v>1.118319942569898</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15.96608360990762</v>
+        <v>13.32071482568761</v>
       </c>
     </row>
     <row r="16">
